--- a/设计模式.xlsx
+++ b/设计模式.xlsx
@@ -16,238 +16,238 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
   <si>
     <t>工厂模式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>创建对象,知其名即可;增加产品,仅扩展一个工厂类;调用者只需关心产品的接口。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>增加了系统的复杂度，同时也增加了系统具体类的依赖</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>模式名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>意图</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>解决问题</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>何时使用</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>如何解决</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>优点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>缺点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>使用场景</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>子类选择工厂实例化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>接口选择</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>不同条件使用不同实例</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>工厂返回抽象实例</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>抽象工厂模式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>相互依赖对象的工厂实例化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>只消费系统某一族的产品</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>产品族里定义多个产品</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>保证调用者始终只使用同一个产品族中的对象</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1、日志记录。2、数据库访问。3、设计连接服务器框架（选择协议pop3、imap、http共同实现一个接口）。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>控制实例化数目，节省系统资源</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>创建一个全局单例</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1、减少了内存的开销。2、避免对资源的多重占用。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>扩展非常困难</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 1、QQ 换皮肤，一整套一起换。 2、生成不同操作系统的程序。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>没有接口，不能继承</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>单例模式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>一个类只有一个实例</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>类的频繁使用</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1、要求生产唯一序列号。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>建造者模式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>把复杂的构建与表示分离</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>过度耦合</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>部件不变，组合发生变化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>将变与不变分开</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t> 1、建造者独立，易扩展。 2、便于控制细节风险。</t>
   </si>
   <si>
     <t> 1、产品必须有共同点，范围限制。 2、内部变化复杂，有很多的建造类。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t> 1、需要生成的对象具有复杂的内部结构。 2、需要生成的对象内部属性本身相互依赖。</t>
   </si>
   <si>
     <t>原型模式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>通过原型创建新的对象</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>创建和删除原型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>动态装载</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>利用原型深拷贝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1、性能提高。 2、逃避构造函数的约束。</t>
   </si>
   <si>
     <t>1、需要对类的功能进行通盘考虑。2、必须实现 Cloneable 接口。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1、一个对象多个修改者的场景。 2、一个对象需要提供给其他对象访问。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>模块模式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>只改变结构内容对整体无影响</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>反复重写方法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>通用的方法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>把方法抽象出来</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1、封装不变，扩展可变部分。 2、提取公共代码，便于维护。 3、行为由父类控制，子类实现。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>每一个实现都需要一个子类，导致类的个数增加，使得系统更加庞大。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t> 1、有多个子类共有的方法，且逻辑相同。 2、重要的、复杂的方法，可以考虑作为模板方法。</t>
   </si>
   <si>
     <t>中介者模式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>降低耦合</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>类相互耦合形成了网状结构</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>网状结构转星型结构</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1、降低了类的复杂度，将一对多转化成了一对一。 2、各个类之间的解耦。</t>
@@ -257,31 +257,107 @@
   </si>
   <si>
     <t>1、系统中对象之间存在比较复杂的引用关系。 2、通过一个中间类封装多个类，又不想生成太多的子类。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>MVC模式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>应用程序分层开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>MVC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>适配器模式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>策略模式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>不兼容接口的桥梁</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>移植环境</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要却不适配</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>继承或依赖</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、让没有关联的类一起运行。 2、提高了类的复用。 3、增加了类的透明度。 4、灵活性好。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、会让系统变的凌乱。2、只能单继承。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、不是在系统详细设计时使用，是在解决正在服役的项目。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>使算法可以相互替换</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>if else的复杂</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为行为产生了很多类</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>共同继承一个接口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、算法可以自由切换。 2、避免使用多重条件判断。 3、扩展性良好。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、策略类会增多。 2、所有策略类都需要对外暴露。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、需要动态选择算法。 2、行为使用多重的条件选择语句。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、降低耦合。2、可维护性高。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -434,56 +510,65 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -802,7 +887,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1036,25 +1121,63 @@
       <c r="E9" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="16"/>
+      <c r="A10" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="11" spans="1:8" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="A11" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
@@ -1082,71 +1205,59 @@
       <c r="G14" s="2"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="12"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="12"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="12"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="12"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="12"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="12"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="12"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+    <row r="15" spans="1:8" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="11"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" spans="1:8" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="11"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="19" spans="1:8" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="11"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="16"/>
+    </row>
+    <row r="21" spans="1:8" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="11"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="12"/>
@@ -4086,7 +4197,7 @@
       <c r="H473" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4100,7 +4211,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4113,7 +4224,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>